--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>姓名</t>
   </si>
@@ -359,6 +359,14 @@
   </si>
   <si>
     <t>修改禅道bug/混淆/加固</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/混淆/加固</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -896,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2348,21 +2356,6 @@
       <c r="A50" s="14">
         <v>43659</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="14">
@@ -2372,6 +2365,66 @@
     <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>43661</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="14">
+        <v>43662</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="14">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="14">
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="14">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="14">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="14">
+        <v>43667</v>
       </c>
     </row>
   </sheetData>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6月日志" sheetId="1" r:id="rId1"/>
+    <sheet name="7月日志" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>姓名</t>
   </si>
@@ -359,17 +360,25 @@
   </si>
   <si>
     <t>修改禅道bug/混淆/加固</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日项目1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -511,6 +520,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -519,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,6 +627,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,6 +664,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -654,7 +718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,9 +750,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,6 +785,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -895,14 +961,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -928,7 +994,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +1002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -944,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -952,7 +1018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -960,7 +1026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1">
+    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,57 +1034,57 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="25" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="25" t="s">
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="25" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="25" t="s">
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
-    </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="33"/>
+    </row>
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1138,7 +1204,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1178,7 +1244,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1208,7 +1274,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1238,7 +1304,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1268,7 +1334,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1308,7 +1374,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1348,7 +1414,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1388,7 +1454,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1428,7 +1494,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1464,7 +1530,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1494,7 +1560,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1524,7 +1590,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1564,7 +1630,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1604,7 +1670,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1644,7 +1710,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1684,7 +1750,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -1724,7 +1790,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -1749,7 +1815,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -1779,7 +1845,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -1819,7 +1885,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -1859,7 +1925,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -1899,7 +1965,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -1939,7 +2005,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -1979,9 +2045,12 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43645</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2004,7 +2073,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2034,7 +2103,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2074,7 +2143,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2114,7 +2183,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2154,7 +2223,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2194,7 +2263,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2234,144 +2303,164 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E45" s="20">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E46" s="20">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E47" s="20">
         <v>0.88611111111111107</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E48" s="20">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E49" s="20">
         <v>1</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <v>43661</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2392,5 +2481,622 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="61.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="3"/>
+    <col min="17" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
+        <v>43647</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
+        <v>43648</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>43649</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>43650</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
+        <v>43651</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14">
+        <v>43652</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
+        <v>43653</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>43654</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
+        <v>43655</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
+        <v>43656</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.88611111111111107</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>43657</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <v>43658</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>43659</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <v>43660</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
+        <v>43661</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
+        <v>43662</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
+        <v>43663</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
+        <v>43664</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14">
+        <v>43665</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14">
+        <v>43666</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <v>43667</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="14">
+        <v>43668</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="14">
+        <v>43669</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="14">
+        <v>43670</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="14">
+        <v>43671</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="14">
+        <v>43672</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="14">
+        <v>43673</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="14">
+        <v>43674</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="14">
+        <v>43675</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="14">
+        <v>43676</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="14">
+        <v>43677</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"设计,研发,质控"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"交付一部(绵阳),交付二部(成都),产品与解决方案部,质量与项目研发管理部"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>姓名</t>
   </si>
@@ -368,6 +368,22 @@
   </si>
   <si>
     <t>当日项目1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/混淆/加固</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成头像上传</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2489,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2908,7 +2924,7 @@
         <v>43661</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
@@ -2937,11 +2953,21 @@
       <c r="A28" s="14">
         <v>43663</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
   <si>
     <t>姓名</t>
   </si>
@@ -379,11 +379,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>修改禅道bug/混淆/加固</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>完成头像上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/修改昵称/上传头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/图片压缩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2506,7 +2510,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2957,7 +2961,7 @@
         <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20">
         <v>0.39583333333333331</v>
@@ -2966,18 +2970,28 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
   <si>
     <t>姓名</t>
   </si>
@@ -388,6 +388,25 @@
   </si>
   <si>
     <t>修改禅道bug/图片压缩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/图片压缩</t>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2510,7 +2529,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2997,11 +3016,21 @@
       <c r="A30" s="14">
         <v>43665</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
@@ -3027,11 +3056,21 @@
       <c r="A33" s="14">
         <v>43668</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
   <si>
     <t>姓名</t>
   </si>
@@ -394,6 +394,10 @@
     <t>修改禅道bug/图片压缩</t>
   </si>
   <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>修改禅道bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -402,7 +406,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>修改禅道bug//优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/解决oppo兼容性/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -413,11 +445,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,10 +821,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,7 +855,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1000,14 +1030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1033,7 +1063,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1073,19 +1103,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -1123,7 +1153,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1243,7 +1273,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1283,7 +1313,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1313,7 +1343,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1343,7 +1373,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1373,7 +1403,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1413,7 +1443,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1453,7 +1483,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1493,7 +1523,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1533,7 +1563,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1569,7 +1599,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1599,7 +1629,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1629,7 +1659,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1669,7 +1699,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1709,7 +1739,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1749,7 +1779,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1789,7 +1819,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -1829,7 +1859,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -1854,7 +1884,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -1884,7 +1914,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -1924,7 +1954,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -1964,7 +1994,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2004,7 +2034,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2044,7 +2074,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2084,7 +2114,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2112,7 +2142,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2142,7 +2172,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2182,7 +2212,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2222,7 +2252,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2262,7 +2292,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2302,7 +2332,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2342,7 +2372,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2352,7 +2382,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2362,7 +2392,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2382,7 +2412,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2402,7 +2432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2422,7 +2452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2442,7 +2472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2462,7 +2492,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2472,7 +2502,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2482,7 +2512,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2525,14 +2555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2550,7 +2580,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2566,7 +2596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2574,7 +2604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2582,7 +2612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2590,19 +2620,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>90</v>
@@ -2622,7 +2652,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2642,7 +2672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -2672,7 +2702,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -2702,7 +2732,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -2732,7 +2762,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -2762,7 +2792,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -2792,7 +2822,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -2812,7 +2842,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -2822,7 +2852,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -2842,7 +2872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -2862,7 +2892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -2882,7 +2912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -2902,7 +2932,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -2922,7 +2952,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -2932,7 +2962,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -2942,7 +2972,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -2962,7 +2992,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -2972,7 +3002,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -2992,7 +3022,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3012,12 +3042,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>96</v>
@@ -3029,10 +3059,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3042,7 +3072,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3052,15 +3082,15 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D33" s="20">
         <v>0.39583333333333331</v>
@@ -3069,50 +3099,90 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3122,7 +3192,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3132,17 +3202,27 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3152,7 +3232,7 @@
       <c r="E41" s="20"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43677</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="115">
   <si>
     <t>姓名</t>
   </si>
@@ -367,89 +367,113 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成头像上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/修改昵称/上传头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/图片压缩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/图片压缩</t>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug//优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/解决oppo兼容性/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/接入微博登录、分享</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建支付项目环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>当日项目1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>易生活v1.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>易生活v1.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成头像上传</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug/修改昵称/上传头像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug/图片压缩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug/图片压缩</t>
-  </si>
-  <si>
-    <t>易生活v1.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>易生活v1.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug//优化代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug/解决oppo兼容性/优化代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>易生活v1.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>易生活v1.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug/优化代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug</t>
+    <t>修改禅道bug/混淆/加固</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/混淆/加固</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/混淆/加固/和正式服调试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,7 +813,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,9 +845,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,6 +880,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1030,14 +1056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1063,7 +1089,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1079,7 +1105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1">
+    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1103,19 +1129,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -1153,7 +1179,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1273,7 +1299,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1313,7 +1339,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1343,7 +1369,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1373,7 +1399,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1403,7 +1429,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1443,7 +1469,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1483,7 +1509,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1523,7 +1549,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1563,7 +1589,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1599,7 +1625,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1629,7 +1655,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1659,7 +1685,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1699,7 +1725,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1739,7 +1765,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1779,7 +1805,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1819,7 +1845,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -1859,7 +1885,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -1884,7 +1910,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -1914,7 +1940,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -1954,7 +1980,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -1994,7 +2020,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2034,7 +2060,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2074,7 +2100,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2114,7 +2140,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2142,7 +2168,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2172,7 +2198,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2212,7 +2238,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2252,7 +2278,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2292,7 +2318,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2332,7 +2358,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2372,7 +2398,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2382,7 +2408,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2392,7 +2418,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2412,7 +2438,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2432,7 +2458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2472,7 +2498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2492,7 +2518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2502,7 +2528,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2512,7 +2538,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2555,14 +2581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2580,7 +2606,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2596,7 +2622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2604,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2612,7 +2638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2620,22 +2646,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -2652,7 +2678,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2672,7 +2698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -2702,7 +2728,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -2732,7 +2758,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -2762,7 +2788,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -2792,7 +2818,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -2822,7 +2848,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -2842,7 +2868,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -2852,7 +2878,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -2872,7 +2898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -2892,7 +2918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -2912,7 +2938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -2932,7 +2958,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -2952,7 +2978,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -2962,7 +2988,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -2972,12 +2998,12 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
@@ -2989,25 +3015,35 @@
         <v>0.875</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>88</v>
@@ -3019,10 +3055,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3030,7 +3066,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="20">
         <v>0.39583333333333331</v>
@@ -3039,18 +3075,18 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="20">
         <v>0.39583333333333331</v>
@@ -3059,10 +3095,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3072,7 +3108,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3082,7 +3118,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3090,7 +3126,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="20">
         <v>0.39583333333333331</v>
@@ -3099,10 +3135,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3110,7 +3146,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="20">
         <v>0.39583333333333331</v>
@@ -3119,10 +3155,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3130,7 +3166,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="20">
         <v>0.39583333333333331</v>
@@ -3139,18 +3175,18 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="20">
         <v>0.5625</v>
@@ -3159,18 +3195,18 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D37" s="20">
         <v>0.39583333333333331</v>
@@ -3179,10 +3215,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3192,7 +3228,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3202,15 +3238,15 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="20">
         <v>0.39583333333333331</v>
@@ -3219,28 +3255,44 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月日志" sheetId="1" r:id="rId1"/>
     <sheet name="7月日志" sheetId="2" r:id="rId2"/>
+    <sheet name="8月日志" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
   <si>
     <t>姓名</t>
   </si>
@@ -463,17 +464,99 @@
   </si>
   <si>
     <t>修改禅道bug/混淆/加固/和正式服调试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.2</t>
+  </si>
+  <si>
+    <t>易生活v1.0.3</t>
+  </si>
+  <si>
+    <t>易生活v1.0.4</t>
+  </si>
+  <si>
+    <t>易生活v1.0.5</t>
+  </si>
+  <si>
+    <t>易生活v1.0.6</t>
+  </si>
+  <si>
+    <t>易生活v1.0.7</t>
+  </si>
+  <si>
+    <t>易生活v1.0.8</t>
+  </si>
+  <si>
+    <t>易生活v1.0.9</t>
+  </si>
+  <si>
+    <t>易生活v1.0.10</t>
+  </si>
+  <si>
+    <t>易生活v1.0.11</t>
+  </si>
+  <si>
+    <t>易生活v1.0.12</t>
+  </si>
+  <si>
+    <t>易生活v1.0.13</t>
+  </si>
+  <si>
+    <t>易生活v1.0.14</t>
+  </si>
+  <si>
+    <t>易生活v1.0.15</t>
+  </si>
+  <si>
+    <t>易生活v1.0.16</t>
+  </si>
+  <si>
+    <t>易生活v1.0.17</t>
+  </si>
+  <si>
+    <t>易生活v1.0.18</t>
+  </si>
+  <si>
+    <t>易生活v1.0.19</t>
+  </si>
+  <si>
+    <t>易生活v1.0.20</t>
+  </si>
+  <si>
+    <t>易生活v1.0.21</t>
+  </si>
+  <si>
+    <t>易生活v1.0.22</t>
+  </si>
+  <si>
+    <t>易生活v1.0.23</t>
+  </si>
+  <si>
+    <t>易生活v1.0.24</t>
+  </si>
+  <si>
+    <t>易生活v1.0.25</t>
+  </si>
+  <si>
+    <t>易生活v1.0.26</t>
+  </si>
+  <si>
+    <t>易生活v1.0.27</t>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -845,10 +928,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,7 +962,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1056,14 +1137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1089,7 +1170,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1129,19 +1210,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -1179,7 +1260,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1299,7 +1380,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1339,7 +1420,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1369,7 +1450,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1399,7 +1480,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1429,7 +1510,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1469,7 +1550,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1509,7 +1590,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1549,7 +1630,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1589,7 +1670,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1625,7 +1706,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1655,7 +1736,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1685,7 +1766,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1725,7 +1806,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1765,7 +1846,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1805,7 +1886,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1845,7 +1926,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -1885,7 +1966,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -1910,7 +1991,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -1940,7 +2021,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -1980,7 +2061,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2020,7 +2101,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2060,7 +2141,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2100,7 +2181,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2140,7 +2221,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2168,7 +2249,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2198,7 +2279,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2238,7 +2319,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2278,7 +2359,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2318,7 +2399,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2358,7 +2439,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2398,7 +2479,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2408,7 +2489,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2418,7 +2499,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2438,7 +2519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2458,7 +2539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2478,7 +2559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2498,7 +2579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2518,7 +2599,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2528,7 +2609,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2538,7 +2619,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2581,14 +2662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2606,7 +2687,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2614,7 +2695,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2622,7 +2703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2638,7 +2719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2646,19 +2727,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>111</v>
@@ -2678,7 +2759,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -2728,7 +2809,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -2758,7 +2839,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -2788,7 +2869,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -2818,7 +2899,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -2848,7 +2929,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -2868,7 +2949,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -2878,7 +2959,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -2898,7 +2979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -2918,7 +2999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -2938,7 +3019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -2958,7 +3039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -2978,7 +3059,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -2988,7 +3069,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -2998,7 +3079,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3018,7 +3099,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3038,7 +3119,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3058,7 +3139,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3078,7 +3159,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3098,7 +3179,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3108,7 +3189,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3118,7 +3199,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3138,7 +3219,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3158,7 +3239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3178,7 +3259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3198,7 +3279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3218,7 +3299,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3228,7 +3309,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3238,7 +3319,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3258,7 +3339,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3278,7 +3359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3310,4 +3391,592 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="61.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="3"/>
+    <col min="17" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="27" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="14">
+        <v>43678</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="14">
+        <v>43679</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="14">
+        <v>43680</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="14">
+        <v>43681</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="14">
+        <v>43682</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="14">
+        <v>43683</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="14">
+        <v>43684</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="14">
+        <v>43685</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="14">
+        <v>43686</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="14">
+        <v>43687</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="14">
+        <v>43688</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14">
+        <v>43689</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="14">
+        <v>43690</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="14">
+        <v>43691</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="14">
+        <v>43692</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="14">
+        <v>43693</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="14">
+        <v>43694</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="14">
+        <v>43695</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="14">
+        <v>43696</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="14">
+        <v>43697</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="14">
+        <v>43698</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14">
+        <v>43699</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14">
+        <v>43700</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14">
+        <v>43701</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14">
+        <v>43702</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14">
+        <v>43703</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="14">
+        <v>43704</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="14">
+        <v>43705</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="14">
+        <v>43706</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14">
+        <v>43707</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14">
+        <v>43708</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"交付一部(绵阳),交付二部(成都),产品与解决方案部,质量与项目研发管理部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"设计,研发,质控"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="123">
   <si>
     <t>姓名</t>
   </si>
@@ -467,85 +467,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>易生活v1.0.2</t>
-  </si>
-  <si>
-    <t>易生活v1.0.3</t>
-  </si>
-  <si>
-    <t>易生活v1.0.4</t>
-  </si>
-  <si>
-    <t>易生活v1.0.5</t>
-  </si>
-  <si>
-    <t>易生活v1.0.6</t>
-  </si>
-  <si>
-    <t>易生活v1.0.7</t>
-  </si>
-  <si>
-    <t>易生活v1.0.8</t>
-  </si>
-  <si>
-    <t>易生活v1.0.9</t>
-  </si>
-  <si>
-    <t>易生活v1.0.10</t>
-  </si>
-  <si>
-    <t>易生活v1.0.11</t>
-  </si>
-  <si>
-    <t>易生活v1.0.12</t>
-  </si>
-  <si>
-    <t>易生活v1.0.13</t>
-  </si>
-  <si>
-    <t>易生活v1.0.14</t>
-  </si>
-  <si>
-    <t>易生活v1.0.15</t>
-  </si>
-  <si>
-    <t>易生活v1.0.16</t>
-  </si>
-  <si>
-    <t>易生活v1.0.17</t>
-  </si>
-  <si>
-    <t>易生活v1.0.18</t>
-  </si>
-  <si>
-    <t>易生活v1.0.19</t>
-  </si>
-  <si>
-    <t>易生活v1.0.20</t>
-  </si>
-  <si>
-    <t>易生活v1.0.21</t>
-  </si>
-  <si>
-    <t>易生活v1.0.22</t>
-  </si>
-  <si>
-    <t>易生活v1.0.23</t>
-  </si>
-  <si>
-    <t>易生活v1.0.24</t>
-  </si>
-  <si>
-    <t>易生活v1.0.25</t>
-  </si>
-  <si>
-    <t>易生活v1.0.26</t>
-  </si>
-  <si>
-    <t>易生活v1.0.27</t>
-  </si>
-  <si>
     <t>修改禅道bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/接入极光推送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/接入极光推送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/修改第二版app</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3398,7 +3348,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3549,7 +3499,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20">
         <v>0.39583333333333331</v>
@@ -3646,12 +3596,20 @@
         <v>43683</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -3668,44 +3626,66 @@
         <v>43684</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -3715,9 +3695,7 @@
       <c r="A22" s="14">
         <v>43688</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -3728,19 +3706,27 @@
         <v>43689</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="20"/>
@@ -3752,7 +3738,7 @@
         <v>43691</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="20"/>
@@ -3764,7 +3750,7 @@
         <v>43692</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="20"/>
@@ -3776,7 +3762,7 @@
         <v>43693</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="20"/>
@@ -3788,7 +3774,7 @@
         <v>43694</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="20"/>
@@ -3800,7 +3786,7 @@
         <v>43695</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="20"/>
@@ -3812,7 +3798,7 @@
         <v>43696</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="20"/>
@@ -3824,7 +3810,7 @@
         <v>43697</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="20"/>
@@ -3836,7 +3822,7 @@
         <v>43698</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="20"/>
@@ -3848,7 +3834,7 @@
         <v>43699</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="20"/>
@@ -3860,7 +3846,7 @@
         <v>43700</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="20"/>
@@ -3872,7 +3858,7 @@
         <v>43701</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="20"/>
@@ -3884,7 +3870,7 @@
         <v>43702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="20"/>
@@ -3896,7 +3882,7 @@
         <v>43703</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="20"/>
@@ -3908,7 +3894,7 @@
         <v>43704</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="20"/>
@@ -3920,7 +3906,7 @@
         <v>43705</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="20"/>
@@ -3932,7 +3918,7 @@
         <v>43706</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="20"/>
@@ -3944,7 +3930,7 @@
         <v>43707</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="20"/>
@@ -3956,7 +3942,7 @@
         <v>43708</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="20"/>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="126">
   <si>
     <t>姓名</t>
   </si>
@@ -492,6 +492,18 @@
   </si>
   <si>
     <t>修改禅道bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/修改第二版app</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/修改第二版app</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -502,11 +514,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,7 +816,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -878,6 +890,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -912,6 +925,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,14 +1101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1120,7 +1134,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1">
+    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1160,19 +1174,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -1210,7 +1224,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1330,7 +1344,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1370,7 +1384,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1400,7 +1414,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1430,7 +1444,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1460,7 +1474,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1500,7 +1514,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1540,7 +1554,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1580,7 +1594,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1620,7 +1634,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1656,7 +1670,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1686,7 +1700,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1716,7 +1730,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1756,7 +1770,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1796,7 +1810,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1836,7 +1850,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1876,7 +1890,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -1916,7 +1930,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -1941,7 +1955,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -1971,7 +1985,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2011,7 +2025,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2051,7 +2065,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2091,7 +2105,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2131,7 +2145,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2171,7 +2185,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2199,7 +2213,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2229,7 +2243,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2269,7 +2283,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2309,7 +2323,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2349,7 +2363,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2389,7 +2403,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2429,7 +2443,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2439,7 +2453,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2449,7 +2463,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2469,7 +2483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2489,7 +2503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2509,7 +2523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2529,7 +2543,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2549,7 +2563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2559,7 +2573,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2569,7 +2583,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2612,14 +2626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2637,7 +2651,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2659,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2653,7 +2667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2661,7 +2675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2669,7 +2683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2677,19 +2691,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>111</v>
@@ -2709,7 +2723,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2729,7 +2743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -2759,7 +2773,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -2789,7 +2803,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -2819,7 +2833,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -2849,7 +2863,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -2879,7 +2893,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -2899,7 +2913,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -2909,7 +2923,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -2929,7 +2943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -2949,7 +2963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -2969,7 +2983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -2989,7 +3003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3009,7 +3023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3019,7 +3033,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3029,7 +3043,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3049,7 +3063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3069,7 +3083,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3089,7 +3103,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3109,7 +3123,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3129,7 +3143,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3139,7 +3153,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3149,7 +3163,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3169,7 +3183,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3189,7 +3203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3209,7 +3223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3229,7 +3243,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3249,7 +3263,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3259,7 +3273,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3269,7 +3283,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3289,7 +3303,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3309,7 +3323,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3344,14 +3358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3369,7 +3383,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +3391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3385,7 +3399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3401,7 +3415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3409,19 +3423,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -3441,7 +3455,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3461,7 +3475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3491,7 +3505,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3521,7 +3535,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3541,7 +3555,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3561,7 +3575,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3591,7 +3605,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -3621,7 +3635,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -3641,7 +3655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -3661,7 +3675,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -3681,7 +3695,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -3691,7 +3705,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -3701,7 +3715,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -3721,31 +3735,39 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="F24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="F25" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -3757,7 +3779,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
@@ -3769,7 +3791,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -3781,7 +3803,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -3793,7 +3815,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
@@ -3805,7 +3827,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -3817,7 +3839,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -3829,7 +3851,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -3841,7 +3863,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -3853,7 +3875,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -3865,7 +3887,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -3877,7 +3899,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -3889,7 +3911,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -3901,7 +3923,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -3913,7 +3935,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
@@ -3925,7 +3947,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
@@ -3937,7 +3959,7 @@
       <c r="E41" s="20"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43708</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="128">
   <si>
     <t>姓名</t>
   </si>
@@ -499,15 +499,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>调休</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>修改禅道bug/优化代码/修改第二版app</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>调休</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>修改禅道bug/优化代码/修改第二版app</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/敏感数据加密/修改ui界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/和H5对接轮播图跳转/权益值明细</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3362,7 +3370,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3743,12 +3751,12 @@
         <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -3761,10 +3769,14 @@
       <c r="C25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -3774,10 +3786,18 @@
       <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="130">
   <si>
     <t>姓名</t>
   </si>
@@ -516,17 +516,25 @@
   </si>
   <si>
     <t>修改禅道bug/优化代码/和H5对接轮播图跳转/权益值明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/和H5对接轮播图跳转/权益值明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代/和H5对接轮播图跳转</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,7 +832,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -898,7 +906,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -933,7 +940,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1109,14 +1115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1142,7 +1148,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1182,19 +1188,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -1232,7 +1238,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1352,7 +1358,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1392,7 +1398,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1422,7 +1428,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1452,7 +1458,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1482,7 +1488,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1522,7 +1528,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1562,7 +1568,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1602,7 +1608,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1642,7 +1648,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1678,7 +1684,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1708,7 +1714,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1738,7 +1744,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1778,7 +1784,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1818,7 +1824,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1858,7 +1864,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1898,7 +1904,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -1938,7 +1944,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -1963,7 +1969,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -1993,7 +1999,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2033,7 +2039,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2073,7 +2079,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2113,7 +2119,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2153,7 +2159,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2193,7 +2199,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2221,7 +2227,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2251,7 +2257,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2291,7 +2297,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2331,7 +2337,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2371,7 +2377,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2411,7 +2417,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2451,7 +2457,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2461,7 +2467,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2471,7 +2477,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2581,7 +2587,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2591,7 +2597,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2634,14 +2640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2659,7 +2665,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2699,19 +2705,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>111</v>
@@ -2731,7 +2737,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -2781,7 +2787,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -2811,7 +2817,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -2841,7 +2847,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -2871,7 +2877,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -2901,7 +2907,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -2921,7 +2927,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -2931,7 +2937,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3041,7 +3047,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3051,7 +3057,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3161,7 +3167,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3171,7 +3177,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3281,7 +3287,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3291,7 +3297,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3366,18 +3372,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="61.25" style="3" customWidth="1"/>
@@ -3391,7 +3397,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3431,19 +3437,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -3463,7 +3469,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3513,7 +3519,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3543,7 +3549,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3563,7 +3569,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3583,7 +3589,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3613,7 +3619,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -3643,7 +3649,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -3713,7 +3719,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -3723,7 +3729,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -3796,22 +3802,30 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -3823,7 +3837,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -3835,7 +3849,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
@@ -3847,7 +3861,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -3859,7 +3873,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -3871,7 +3885,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -3883,7 +3897,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -3895,7 +3909,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -3907,7 +3921,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -3919,7 +3933,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -3931,7 +3945,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -3943,7 +3957,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -3955,7 +3969,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
@@ -3967,7 +3981,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
@@ -3979,7 +3993,7 @@
       <c r="E41" s="20"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43708</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="132">
   <si>
     <t>姓名</t>
   </si>
@@ -524,6 +524,14 @@
   </si>
   <si>
     <t>修改禅道bug/优化代/和H5对接轮播图跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代/和H5对接轮播图跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3376,7 +3384,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3856,10 +3864,18 @@
       <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="132">
   <si>
     <t>姓名</t>
   </si>
@@ -516,17 +516,33 @@
   </si>
   <si>
     <t>修改禅道bug/优化代码/和H5对接轮播图跳转/权益值明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代码/和H5对接轮播图跳转/权益值明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代/和H5对接轮播图跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代/和H5对接轮播图跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -898,7 +914,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -933,7 +948,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1109,14 +1123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1142,7 +1156,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1166,7 +1180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1182,19 +1196,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -1232,7 +1246,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1352,7 +1366,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1392,7 +1406,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1422,7 +1436,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1452,7 +1466,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1482,7 +1496,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1522,7 +1536,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1562,7 +1576,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1602,7 +1616,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1642,7 +1656,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1678,7 +1692,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1708,7 +1722,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1738,7 +1752,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1778,7 +1792,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1818,7 +1832,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1858,7 +1872,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1898,7 +1912,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -1938,7 +1952,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -1963,7 +1977,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -1993,7 +2007,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2033,7 +2047,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2073,7 +2087,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2113,7 +2127,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2153,7 +2167,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2193,7 +2207,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2221,7 +2235,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2251,7 +2265,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2291,7 +2305,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2331,7 +2345,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2371,7 +2385,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2411,7 +2425,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2451,7 +2465,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2461,7 +2475,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2471,7 +2485,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2491,7 +2505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2511,7 +2525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2531,7 +2545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2551,7 +2565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2571,7 +2585,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2581,7 +2595,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2591,7 +2605,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2634,14 +2648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2659,7 +2673,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +2689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2683,7 +2697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2699,19 +2713,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>111</v>
@@ -2731,7 +2745,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2751,7 +2765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -2781,7 +2795,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -2811,7 +2825,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -2841,7 +2855,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -2871,7 +2885,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -2901,7 +2915,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -2921,7 +2935,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -2931,7 +2945,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -2971,7 +2985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -2991,7 +3005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -3011,7 +3025,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3031,7 +3045,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3041,7 +3055,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3051,7 +3065,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3091,7 +3105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3131,7 +3145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3151,7 +3165,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3161,7 +3175,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3171,7 +3185,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3191,7 +3205,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3211,7 +3225,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3231,7 +3245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3251,7 +3265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3271,7 +3285,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3281,7 +3295,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3291,7 +3305,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3311,7 +3325,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3331,7 +3345,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3366,18 +3380,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="61.25" style="3" customWidth="1"/>
@@ -3391,7 +3405,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3399,7 +3413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3407,7 +3421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3415,7 +3429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +3437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3431,19 +3445,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -3463,7 +3477,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3483,7 +3497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3513,7 +3527,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3543,7 +3557,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3563,7 +3577,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3583,7 +3597,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3613,7 +3627,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -3643,7 +3657,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -3683,7 +3697,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -3703,7 +3717,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -3713,7 +3727,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -3723,7 +3737,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -3743,7 +3757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
@@ -3759,7 +3773,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
@@ -3779,7 +3793,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -3796,22 +3810,30 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -3823,7 +3845,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -3835,19 +3857,27 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -3859,7 +3889,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -3871,7 +3901,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -3883,7 +3913,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -3895,7 +3925,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -3907,7 +3937,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -3919,7 +3949,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -3931,7 +3961,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -3943,7 +3973,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -3955,7 +3985,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
@@ -3967,7 +3997,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
@@ -3979,7 +4009,7 @@
       <c r="E41" s="20"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43708</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
   <si>
     <t>姓名</t>
   </si>
@@ -528,6 +528,10 @@
   </si>
   <si>
     <t>修改禅道bug/优化代/和H5对接轮播图跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3384,7 +3388,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3884,10 +3888,18 @@
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>姓名</t>
   </si>
@@ -528,6 +528,14 @@
   </si>
   <si>
     <t>修改禅道bug/优化代/和H5对接轮播图跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/优化代</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3388,7 +3396,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3889,7 +3897,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="20">
         <v>0.39583333333333331</v>
@@ -3908,10 +3916,18 @@
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
   <si>
     <t>姓名</t>
   </si>
@@ -543,7 +543,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>修改禅道bug/优化代</t>
+    <t>解决禅道上易计划App的bug/优化代</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.1.2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3396,7 +3400,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3917,7 +3921,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D32" s="20">
         <v>0.39583333333333331</v>
@@ -3934,19 +3938,27 @@
         <v>43699</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="20"/>
@@ -3958,7 +3970,7 @@
         <v>43701</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="20"/>
@@ -3970,7 +3982,7 @@
         <v>43702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="20"/>
@@ -3982,7 +3994,7 @@
         <v>43703</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="20"/>
@@ -3994,7 +4006,7 @@
         <v>43704</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="20"/>
@@ -4006,7 +4018,7 @@
         <v>43705</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="20"/>
@@ -4018,7 +4030,7 @@
         <v>43706</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="20"/>
@@ -4030,7 +4042,7 @@
         <v>43707</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="20"/>
@@ -4042,7 +4054,7 @@
         <v>43708</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="20"/>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -10,13 +10,14 @@
     <sheet name="6月日志" sheetId="1" r:id="rId1"/>
     <sheet name="7月日志" sheetId="2" r:id="rId2"/>
     <sheet name="8月日志" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="143">
   <si>
     <t>姓名</t>
   </si>
@@ -531,23 +532,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>修改禅道bug/优化代</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug/优化代</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug/优化代</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决禅道上易计划App的bug/优化代</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>易生活v1.1.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决禅道上易计划App的bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决禅道上易计划App的bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决禅道上易计划App的bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决禅道上易计划App的bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决禅道上易计划App的bug/优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决禅道上易计划App的bug/查看极光im文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目正式服上线，支持Android端和后端联调</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持正式服Android端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持正式服Android端/易计划v2需求评审会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持正式服Android端/易计划v2排期/易计划项目框架搭建</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3399,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3890,7 +3919,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3901,7 +3930,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D31" s="20">
         <v>0.39583333333333331</v>
@@ -3910,7 +3939,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3921,7 +3950,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D32" s="20">
         <v>0.39583333333333331</v>
@@ -3938,10 +3967,10 @@
         <v>43699</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" s="20">
         <v>0.39583333333333331</v>
@@ -3950,7 +3979,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3958,19 +3987,27 @@
         <v>43700</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="20"/>
@@ -3982,7 +4019,7 @@
         <v>43702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="20"/>
@@ -3994,43 +4031,67 @@
         <v>43703</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="20"/>
@@ -4042,7 +4103,7 @@
         <v>43707</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="20"/>
@@ -4054,12 +4115,20 @@
         <v>43708</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="E42" s="20">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4077,4 +4146,580 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="61.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="3"/>
+    <col min="17" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="27" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="14">
+        <v>43709</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="14">
+        <v>43710</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="14">
+        <v>43711</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="14">
+        <v>43712</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="14">
+        <v>43713</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="14">
+        <v>43714</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="14">
+        <v>43715</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="14">
+        <v>43716</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="14">
+        <v>43717</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="14">
+        <v>43718</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="14">
+        <v>43719</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14">
+        <v>43720</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="14">
+        <v>43721</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="14">
+        <v>43722</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="14">
+        <v>43723</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="14">
+        <v>43724</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="14">
+        <v>43725</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="14">
+        <v>43727</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="14">
+        <v>43728</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="14">
+        <v>43729</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14">
+        <v>43730</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14">
+        <v>43731</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14">
+        <v>43732</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14">
+        <v>43733</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14">
+        <v>43734</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="14">
+        <v>43735</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="14">
+        <v>43736</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="14">
+        <v>43737</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14">
+        <v>43738</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14">
+        <v>43739</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"设计,研发,质控"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"交付一部(绵阳),交付二部(成都),产品与解决方案部,质量与项目研发管理部"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6月日志" sheetId="1" r:id="rId1"/>
     <sheet name="7月日志" sheetId="2" r:id="rId2"/>
     <sheet name="8月日志" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="9月日志" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="145">
   <si>
     <t>姓名</t>
   </si>
@@ -577,6 +577,14 @@
   </si>
   <si>
     <t>支持正式服Android端/易计划v2排期/易计划项目框架搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持正式服Android端/易计划项目框架搭建完成/帮同事解决Android相关问题/面试Android开发人员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成易计划首页界面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3428,7 +3436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -4152,8 +4160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4318,17 +4326,25 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="61.5" customHeight="1">
       <c r="A14" s="14">
         <v>43711</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="147">
   <si>
     <t>姓名</t>
   </si>
@@ -585,17 +585,25 @@
   </si>
   <si>
     <t>完成易计划首页界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/对接正式环境微信支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/对接正式环境支付宝支付</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,7 +901,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -967,6 +975,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1001,6 +1010,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1176,14 +1186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1209,7 +1219,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1">
+    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1249,19 +1259,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -1299,7 +1309,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1419,7 +1429,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1459,7 +1469,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1489,7 +1499,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1519,7 +1529,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1549,7 +1559,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1589,7 +1599,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1629,7 +1639,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1669,7 +1679,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1709,7 +1719,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1745,7 +1755,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1775,7 +1785,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1805,7 +1815,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1845,7 +1855,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1885,7 +1895,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1925,7 +1935,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1965,7 +1975,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -2005,7 +2015,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -2030,7 +2040,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -2060,7 +2070,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2100,7 +2110,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2140,7 +2150,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2180,7 +2190,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2220,7 +2230,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2260,7 +2270,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2288,7 +2298,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2318,7 +2328,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2358,7 +2368,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2398,7 +2408,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2438,7 +2448,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2478,7 +2488,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2518,7 +2528,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2528,7 +2538,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2538,7 +2548,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2558,7 +2568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2598,7 +2608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2618,7 +2628,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2638,7 +2648,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2648,7 +2658,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2658,7 +2668,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2701,14 +2711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2726,7 +2736,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2750,7 +2760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2766,19 +2776,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>111</v>
@@ -2798,7 +2808,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -2848,7 +2858,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -2878,7 +2888,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -2908,7 +2918,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -2938,7 +2948,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -2968,7 +2978,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -2988,7 +2998,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -2998,7 +3008,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -3018,7 +3028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -3038,7 +3048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -3058,7 +3068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3098,7 +3108,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3108,7 +3118,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3118,7 +3128,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3138,7 +3148,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3158,7 +3168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3178,7 +3188,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3198,7 +3208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3228,7 +3238,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3238,7 +3248,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3258,7 +3268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3278,7 +3288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3318,7 +3328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3338,7 +3348,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3348,7 +3358,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3358,7 +3368,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3378,7 +3388,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3398,7 +3408,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3433,14 +3443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3458,7 +3468,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +3484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3482,7 +3492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +3500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3498,19 +3508,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -3530,7 +3540,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3550,7 +3560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3580,7 +3590,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3610,7 +3620,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3630,7 +3640,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3650,7 +3660,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3680,7 +3690,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -3710,7 +3720,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -3730,7 +3740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -3750,7 +3760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -3770,7 +3780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -3780,7 +3790,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -3790,7 +3800,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -3810,7 +3820,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
@@ -3826,7 +3836,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
@@ -3846,7 +3856,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -3866,7 +3876,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
@@ -3886,7 +3896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -3898,7 +3908,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -3910,7 +3920,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -3970,7 +3980,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -3990,7 +4000,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -4010,7 +4020,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -4022,7 +4032,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -4034,7 +4044,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -4054,7 +4064,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -4094,31 +4104,47 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="C40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E40" s="20">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="C41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43708</v>
       </c>
@@ -4157,14 +4183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -4182,7 +4208,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4190,7 +4216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4198,7 +4224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4206,7 +4232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4214,7 +4240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4222,19 +4248,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -4254,7 +4280,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -4274,7 +4300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43709</v>
       </c>
@@ -4296,7 +4322,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43710</v>
       </c>
@@ -4326,7 +4352,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="61.5" customHeight="1">
+    <row r="14" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43711</v>
       </c>
@@ -4356,7 +4382,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43712</v>
       </c>
@@ -4378,7 +4404,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43713</v>
       </c>
@@ -4400,7 +4426,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43714</v>
       </c>
@@ -4422,7 +4448,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43715</v>
       </c>
@@ -4434,7 +4460,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43716</v>
       </c>
@@ -4446,7 +4472,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43717</v>
       </c>
@@ -4458,7 +4484,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43718</v>
       </c>
@@ -4470,7 +4496,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43719</v>
       </c>
@@ -4482,7 +4508,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43720</v>
       </c>
@@ -4494,7 +4520,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43721</v>
       </c>
@@ -4506,7 +4532,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43722</v>
       </c>
@@ -4518,7 +4544,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43723</v>
       </c>
@@ -4530,7 +4556,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43724</v>
       </c>
@@ -4542,7 +4568,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43725</v>
       </c>
@@ -4554,7 +4580,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43726</v>
       </c>
@@ -4566,7 +4592,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43727</v>
       </c>
@@ -4578,7 +4604,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43728</v>
       </c>
@@ -4590,7 +4616,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43729</v>
       </c>
@@ -4602,7 +4628,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43730</v>
       </c>
@@ -4614,7 +4640,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43731</v>
       </c>
@@ -4626,7 +4652,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43732</v>
       </c>
@@ -4638,7 +4664,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43733</v>
       </c>
@@ -4650,7 +4676,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43734</v>
       </c>
@@ -4662,7 +4688,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43735</v>
       </c>
@@ -4674,7 +4700,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43736</v>
       </c>
@@ -4686,7 +4712,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43737</v>
       </c>
@@ -4698,7 +4724,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43738</v>
       </c>
@@ -4710,7 +4736,7 @@
       <c r="E41" s="20"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43739</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6月日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
   <si>
     <t>姓名</t>
   </si>
@@ -584,15 +584,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>修改禅道bug/对接正式环境微信支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改禅道bug/对接正式环境支付宝支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成易计划首页界面完成70%/工作计划排期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>完成易计划首页界面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>修改禅道bug/对接正式环境微信支付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改禅道bug/对接正式环境支付宝支付</t>
+    <t>完成易计划首页界面/侧边栏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3446,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -4112,7 +4120,7 @@
         <v>131</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="20">
         <v>0.39583333333333331</v>
@@ -4121,7 +4129,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -4132,7 +4140,7 @@
         <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="20">
         <v>0.5625</v>
@@ -4186,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4369,7 +4377,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -4389,10 +4397,18 @@
       <c r="B15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
   <si>
     <t>姓名</t>
   </si>
@@ -601,17 +601,25 @@
   </si>
   <si>
     <t>完成易计划首页界面/侧边栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成易计划首页界面/侧边栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成购物车界面50%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,7 +917,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -983,7 +991,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1018,7 +1025,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1194,14 +1200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1227,7 +1233,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1267,19 +1273,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -1317,7 +1323,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1437,7 +1443,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1477,7 +1483,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1507,7 +1513,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1537,7 +1543,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1567,7 +1573,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1607,7 +1613,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1647,7 +1653,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1687,7 +1693,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1727,7 +1733,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1763,7 +1769,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1793,7 +1799,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1823,7 +1829,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -1863,7 +1869,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -1903,7 +1909,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -1943,7 +1949,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -1983,7 +1989,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -2023,7 +2029,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -2048,7 +2054,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -2078,7 +2084,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2118,7 +2124,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2158,7 +2164,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2198,7 +2204,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2238,7 +2244,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2278,7 +2284,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2306,7 +2312,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2336,7 +2342,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2376,7 +2382,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2416,7 +2422,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2456,7 +2462,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2496,7 +2502,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2536,7 +2542,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2546,7 +2552,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2556,7 +2562,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2666,7 +2672,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2676,7 +2682,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2719,14 +2725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2744,7 +2750,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2784,19 +2790,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>111</v>
@@ -2816,7 +2822,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -2866,7 +2872,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -2896,7 +2902,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -2926,7 +2932,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -2956,7 +2962,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -2986,7 +2992,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -3006,7 +3012,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -3016,7 +3022,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3126,7 +3132,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3136,7 +3142,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3246,7 +3252,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3256,7 +3262,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3366,7 +3372,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3376,7 +3382,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3451,14 +3457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3476,7 +3482,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3516,19 +3522,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -3548,7 +3554,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3598,7 +3604,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3628,7 +3634,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3648,7 +3654,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3668,7 +3674,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3698,7 +3704,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -3728,7 +3734,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -3788,7 +3794,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -3798,7 +3804,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -3808,7 +3814,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -3916,7 +3922,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -3928,7 +3934,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -4040,7 +4046,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -4052,7 +4058,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -4092,7 +4098,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43708</v>
       </c>
@@ -4191,14 +4197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -4216,7 +4222,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4256,19 +4262,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="31" t="s">
         <v>5</v>
@@ -4288,7 +4294,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43709</v>
       </c>
@@ -4330,7 +4336,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43710</v>
       </c>
@@ -4360,7 +4366,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="61.5" customHeight="1">
       <c r="A14" s="14">
         <v>43711</v>
       </c>
@@ -4390,7 +4396,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43712</v>
       </c>
@@ -4420,17 +4426,25 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43713</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.8125</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -4442,7 +4456,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43714</v>
       </c>
@@ -4464,7 +4478,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43715</v>
       </c>
@@ -4476,7 +4490,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43716</v>
       </c>
@@ -4488,7 +4502,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43717</v>
       </c>
@@ -4500,7 +4514,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43718</v>
       </c>
@@ -4512,7 +4526,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43719</v>
       </c>
@@ -4524,7 +4538,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43720</v>
       </c>
@@ -4536,7 +4550,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43721</v>
       </c>
@@ -4548,7 +4562,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43722</v>
       </c>
@@ -4560,7 +4574,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43723</v>
       </c>
@@ -4572,7 +4586,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43724</v>
       </c>
@@ -4584,7 +4598,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43725</v>
       </c>
@@ -4596,7 +4610,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43726</v>
       </c>
@@ -4608,7 +4622,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43727</v>
       </c>
@@ -4620,7 +4634,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43728</v>
       </c>
@@ -4632,7 +4646,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43729</v>
       </c>
@@ -4644,7 +4658,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43730</v>
       </c>
@@ -4656,7 +4670,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43731</v>
       </c>
@@ -4668,7 +4682,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43732</v>
       </c>
@@ -4680,7 +4694,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43733</v>
       </c>
@@ -4692,7 +4706,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43734</v>
       </c>
@@ -4704,7 +4718,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43735</v>
       </c>
@@ -4716,7 +4730,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43736</v>
       </c>
@@ -4728,7 +4742,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43737</v>
       </c>
@@ -4740,7 +4754,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43738</v>
       </c>
@@ -4752,7 +4766,7 @@
       <c r="E41" s="20"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43739</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -609,6 +609,14 @@
   </si>
   <si>
     <t>完成购物车界面50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成购物车界面首页/完成资讯和权益中心首页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成订单页面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4201,7 +4209,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4463,10 +4471,18 @@
       <c r="B17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.8125</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
   <si>
     <t>姓名</t>
   </si>
@@ -617,6 +617,14 @@
   </si>
   <si>
     <t>完成订单页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成新版预售/面试Android开发人员/新版侧板栏/悬浮栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改新版界面风格/个人信息页面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4209,7 +4217,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4525,10 +4533,18 @@
       <c r="B20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="157">
   <si>
     <t>姓名</t>
   </si>
@@ -625,6 +625,17 @@
   </si>
   <si>
     <t>修改新版界面风格/个人信息页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改新版界面风格（100%）
+2、调整一级和二级页面顺序（100）
+3、设置界面和个人信息界面（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、消息列表和消息详情界面（100%）
+2、邀请有奖界面（100%）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,6 +923,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4216,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4546,17 +4560,25 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="77.25" customHeight="1">
       <c r="A21" s="14">
         <v>43718</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.8125</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="180">
   <si>
     <t>姓名</t>
   </si>
@@ -636,6 +636,121 @@
   <si>
     <t>1、消息列表和消息详情界面（100%）
 2、邀请有奖界面（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、消息列表和消息详情界面（100%）
+2、邀请有奖界面（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调试修改个人信息接口（100%）
+2、调试消息列表和消息详情界面接口（100%）
+3、修改绑定手机号界面和接口(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调试修改个人信息接口（100%）
+2、调试消息列表和消息详情界面接口（100%）
+3、修改绑定手机号界面和接口(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、对接和H5交互（100%）
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v2.0.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、和H5对接交互（100%）
+2、调试获取购物车数量和新消息提示接口（100）
+3、修改推送跳转页面和支付成功跳转页面（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、自测和修改测试提出的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、自测和修改测试提出的问题（100%）
+2、Android上架所需资料文档提交（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、权益值明细字体重合（100%）
+2、webView输入框被软件盘挡住（100%）
+3、Android手机分屏适配(100%)
+4、修改主题颜色为紫色（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改第三方账号和包名（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改第三方账号和包名（100%）
+2、修改H5的交互bug(100%)
+3、修改引导页和icon(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改数据为空和网络错误空页面（100%）
+2、准备打包上线（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改数据为空和网络错误空页面（100%）
+2、准备打包上线（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改App线上环境Bug(100%)
+2、熟悉Rn和Android原生通信（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinpay_v1.0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成支付宝和微信到账监听心跳(100%)
+2、打包coinpay的apk上线(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、完成易计划V1.0.3首页原生代替H5界面（100%）
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.3.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成易计划V1.0.3首页原生代替H5界面（100%）
+2、首页接口调试（70%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、首页接口调试（100%）
+2、首页跳转和细节处理（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、首页接口调试（100%）
+2、首页跳转和细节处理（100%）
+3、测试服打包apk(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -915,6 +1030,9 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,9 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1317,41 +1432,41 @@
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="31" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="31" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="31" t="s">
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="31" t="s">
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
@@ -2834,13 +2949,13 @@
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -3566,13 +3681,13 @@
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -4230,8 +4345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4306,13 +4421,13 @@
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -4567,7 +4682,7 @@
       <c r="B21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="31" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="20">
@@ -4576,54 +4691,78 @@
       <c r="E21" s="20">
         <v>0.8125</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="88.5" customHeight="1">
       <c r="A22" s="14">
         <v>43719</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="C22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.8125</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="57.75" customHeight="1">
       <c r="A23" s="14">
         <v>43720</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="C23" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="84" customHeight="1">
       <c r="A24" s="14">
         <v>43721</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:16">
+        <v>161</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="30.75" customHeight="1">
       <c r="A25" s="14">
         <v>43722</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C25" s="22"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
@@ -4633,67 +4772,99 @@
         <v>43723</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="72" customHeight="1">
       <c r="A27" s="14">
         <v>43724</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:16">
+        <v>164</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.88263888888888886</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="91.5" customHeight="1">
       <c r="A28" s="14">
         <v>43725</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:16">
+        <v>161</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="69.75" customHeight="1">
       <c r="A29" s="14">
         <v>43726</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:16">
+        <v>161</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="56.25" customHeight="1">
       <c r="A30" s="14">
         <v>43727</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.125</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43728</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="20"/>
@@ -4705,7 +4876,7 @@
         <v>43729</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="20"/>
@@ -4717,7 +4888,7 @@
         <v>43730</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="20"/>
@@ -4729,55 +4900,79 @@
         <v>43731</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="78.75" customHeight="1">
       <c r="A35" s="14">
         <v>43732</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
+        <v>172</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E35" s="20">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="62.25" customHeight="1">
       <c r="A36" s="14">
         <v>43733</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6">
+        <v>175</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" customHeight="1">
       <c r="A37" s="14">
         <v>43734</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43735</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="20"/>
@@ -4789,7 +4984,7 @@
         <v>43736</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="20"/>
@@ -4801,7 +4996,7 @@
         <v>43737</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="20"/>
@@ -4813,7 +5008,7 @@
         <v>43738</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="20"/>
@@ -4825,7 +5020,7 @@
         <v>43739</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="20"/>
@@ -4837,7 +5032,7 @@
     <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"设计,研发,质控"</formula1>
     </dataValidation>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6月日志" sheetId="1" r:id="rId1"/>
     <sheet name="7月日志" sheetId="2" r:id="rId2"/>
     <sheet name="8月日志" sheetId="3" r:id="rId3"/>
     <sheet name="9月日志" sheetId="4" r:id="rId4"/>
+    <sheet name="10月日志" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="199">
   <si>
     <t>姓名</t>
   </si>
@@ -750,18 +751,102 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>coinpay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Rn和android原生的通信（100%）
+2、监听心跳和监听的发送接口调用（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成coinpay的微信和支付宝监听功能（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinpay_v1.0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成coinpay的微信和支付宝监听功能（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成coinpay的微信和支付宝监听功能心跳（100%）
+2、coonpay的Android版本打包上线。（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>调休</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易生活v1.3.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改易计划V1.3.0主页界bug(100%)
+2、优化主界面Ui性能(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改易计划V1.3.0主页界bug(100%)
+2、优化主界面Ui性能(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改易计划测试Bug（100%）
+2、易计划打包上线(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改易计划测试Bug（100%）
+2、易计划打包上线(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易计划v1.3.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、项目上线后的优化代码。(100%)
+2、测试测出的Bug(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、项目上线后的优化代码。(100%)
+2、测试测出的Bug(100%)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,6 +1127,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比 2" xfId="2"/>
@@ -1062,7 +1151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1136,6 +1225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1170,6 +1260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1345,14 +1436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1378,7 +1469,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1477,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1394,7 +1485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1">
+    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1418,19 +1509,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="32" t="s">
         <v>5</v>
@@ -1468,7 +1559,7 @@
       <c r="Y10" s="33"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1548,7 +1639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1588,7 +1679,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1628,7 +1719,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1658,7 +1749,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1688,7 +1779,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1718,7 +1809,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1758,7 +1849,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1798,7 +1889,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1838,7 +1929,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1878,7 +1969,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -1914,7 +2005,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -1944,7 +2035,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -1974,7 +2065,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -2014,7 +2105,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -2054,7 +2145,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -2094,7 +2185,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -2134,7 +2225,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -2174,7 +2265,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -2199,7 +2290,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -2229,7 +2320,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2269,7 +2360,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2309,7 +2400,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2349,7 +2440,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2389,7 +2480,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2429,7 +2520,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2457,7 +2548,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2487,7 +2578,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2527,7 +2618,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2567,7 +2658,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2607,7 +2698,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2647,7 +2738,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2687,7 +2778,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2697,7 +2788,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2707,7 +2798,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2727,7 +2818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2747,7 +2838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2767,7 +2858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2787,7 +2878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2807,7 +2898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2817,7 +2908,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2827,7 +2918,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2870,14 +2961,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2895,7 +2986,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2903,7 +2994,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2911,7 +3002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2919,7 +3010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +3018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2935,19 +3026,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="32" t="s">
         <v>111</v>
@@ -2967,7 +3058,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2987,7 +3078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -3017,7 +3108,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -3047,7 +3138,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -3077,7 +3168,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -3107,7 +3198,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -3137,7 +3228,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -3157,7 +3248,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -3167,7 +3258,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -3187,7 +3278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -3207,7 +3298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -3227,7 +3318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -3247,7 +3338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3267,7 +3358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3277,7 +3368,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3287,7 +3378,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3307,7 +3398,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3327,7 +3418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3347,7 +3438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3367,7 +3458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3387,7 +3478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3397,7 +3488,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3407,7 +3498,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3427,7 +3518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3447,7 +3538,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3467,7 +3558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3487,7 +3578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3507,7 +3598,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3517,7 +3608,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3527,7 +3618,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3547,7 +3638,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3567,7 +3658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3602,14 +3693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3627,7 +3718,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3635,7 +3726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3643,7 +3734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3651,7 +3742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3659,7 +3750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3667,19 +3758,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="32" t="s">
         <v>5</v>
@@ -3699,7 +3790,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3719,7 +3810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3749,7 +3840,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3779,7 +3870,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3799,7 +3890,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3819,7 +3910,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3849,7 +3940,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -3879,7 +3970,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -3899,7 +3990,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -3919,7 +4010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -3939,7 +4030,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -3949,7 +4040,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -3959,7 +4050,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -3979,7 +4070,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
@@ -3995,7 +4086,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
@@ -4015,7 +4106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -4035,7 +4126,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
@@ -4055,7 +4146,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -4067,7 +4158,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -4079,7 +4170,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
@@ -4099,7 +4190,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -4119,7 +4210,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -4139,7 +4230,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -4159,7 +4250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -4179,7 +4270,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -4191,7 +4282,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -4203,7 +4294,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -4223,7 +4314,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -4243,7 +4334,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -4263,7 +4354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
@@ -4283,7 +4374,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
@@ -4303,7 +4394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43708</v>
       </c>
@@ -4342,14 +4433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -4367,7 +4458,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4375,7 +4466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4383,7 +4474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4391,7 +4482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4399,7 +4490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4407,19 +4498,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="32" t="s">
         <v>5</v>
@@ -4439,7 +4530,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -4459,14 +4550,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43709</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="22" t="s">
+        <v>193</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
@@ -4481,7 +4574,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43710</v>
       </c>
@@ -4511,7 +4604,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="61.5" customHeight="1">
+    <row r="14" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43711</v>
       </c>
@@ -4541,7 +4634,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43712</v>
       </c>
@@ -4571,7 +4664,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43713</v>
       </c>
@@ -4601,7 +4694,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43714</v>
       </c>
@@ -4631,31 +4724,35 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43715</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43716</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43717</v>
       </c>
@@ -4675,7 +4772,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="77.25" customHeight="1">
+    <row r="21" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43718</v>
       </c>
@@ -4695,7 +4792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="88.5" customHeight="1">
+    <row r="22" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43719</v>
       </c>
@@ -4715,7 +4812,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="57.75" customHeight="1">
+    <row r="23" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43720</v>
       </c>
@@ -4735,7 +4832,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="84" customHeight="1">
+    <row r="24" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43721</v>
       </c>
@@ -4755,31 +4852,35 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30.75" customHeight="1">
+    <row r="25" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43722</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>193</v>
+      </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43723</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="72" customHeight="1">
+    <row r="27" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43724</v>
       </c>
@@ -4799,7 +4900,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="91.5" customHeight="1">
+    <row r="28" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43725</v>
       </c>
@@ -4819,7 +4920,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="69.75" customHeight="1">
+    <row r="29" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43726</v>
       </c>
@@ -4839,7 +4940,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="56.25" customHeight="1">
+    <row r="30" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43727</v>
       </c>
@@ -4859,55 +4960,75 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43728</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:16">
+        <v>179</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43729</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
+        <v>182</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43730</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43731</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="78.75" customHeight="1">
+    <row r="35" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43732</v>
       </c>
@@ -4927,7 +5048,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="62.25" customHeight="1">
+    <row r="36" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43733</v>
       </c>
@@ -4947,12 +5068,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="60" customHeight="1">
+    <row r="37" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43734</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>178</v>
@@ -4964,68 +5085,96 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43735</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43736</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43737</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43738</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="14">
-        <v>43739</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="36" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="35"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5043,4 +5192,598 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="51.875" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
+        <v>43739</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
+        <v>43740</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>43741</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>43742</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
+        <v>43743</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="14">
+        <v>43744</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
+        <v>43745</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>43746</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
+        <v>43747</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
+        <v>43748</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>43749</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <v>43750</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>43751</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <v>43752</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
+        <v>43753</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
+        <v>43754</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
+        <v>43755</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
+        <v>43756</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="14">
+        <v>43757</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="14">
+        <v>43758</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <v>43759</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="14">
+        <v>43760</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="14">
+        <v>43761</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="14">
+        <v>43762</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="14">
+        <v>43763</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="14">
+        <v>43764</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="14">
+        <v>43765</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="14">
+        <v>43766</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="14">
+        <v>43767</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="14">
+        <v>43768</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="20">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"交付一部(绵阳),交付二部(成都),产品与解决方案部,质量与项目研发管理部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"设计,研发,质控"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="200">
   <si>
     <t>姓名</t>
   </si>
@@ -835,7 +835,13 @@
   </si>
   <si>
     <t>1、项目上线后的优化代码。(100%)
-2、测试测出的Bug(100%)</t>
+2、测试测出的Bug(100%)
+3、查找H5能吊起本地App插件（50%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、验证H5能否吊起本地App插件（100%）
+2、修改点击返回键时调出侧边栏（100%）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1118,6 +1124,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,10 +1137,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比 2" xfId="2"/>
@@ -1523,41 +1529,41 @@
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="32" t="s">
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="32" t="s">
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="34"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="36"/>
     </row>
     <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
@@ -3040,13 +3046,13 @@
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -3772,13 +3778,13 @@
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -4512,13 +4518,13 @@
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5158,8 +5164,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="36" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:16" s="33" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="32"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="30"/>
@@ -5199,7 +5205,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5209,7 +5215,7 @@
     <col min="3" max="3" width="51.875" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
     <col min="5" max="5" width="28.625" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -5306,13 +5312,13 @@
     </row>
     <row r="10" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
@@ -5459,8 +5465,12 @@
       <c r="D19" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="20">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="203">
   <si>
     <t>姓名</t>
   </si>
@@ -844,15 +844,30 @@
 2、修改点击返回键时调出侧边栏（100%）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1、验证H5能否吊起本地App插件（只能通过系统的浏览器）（100%）
+2、修改点击返回键时调出侧边栏（100%）
+3、支付项目的支付监控（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、解决首页购物车点击2次才能返回（100%）
+2、查看支付监控的兼容性问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,7 +1172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1231,7 +1246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1266,7 +1280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1442,14 +1455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1475,7 +1488,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +1512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1515,19 +1528,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -1565,7 +1578,7 @@
       <c r="Y10" s="35"/>
       <c r="Z10" s="36"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1685,7 +1698,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1725,7 +1738,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1755,7 +1768,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1785,7 +1798,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1815,7 +1828,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1855,7 +1868,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1895,7 +1908,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1935,7 +1948,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1975,7 +1988,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -2011,7 +2024,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -2041,7 +2054,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -2071,7 +2084,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -2111,7 +2124,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -2151,7 +2164,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -2191,7 +2204,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -2231,7 +2244,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -2271,7 +2284,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -2296,7 +2309,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -2326,7 +2339,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2366,7 +2379,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2406,7 +2419,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2446,7 +2459,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2486,7 +2499,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2526,7 +2539,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2554,7 +2567,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2584,7 +2597,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2624,7 +2637,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2664,7 +2677,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2704,7 +2717,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2744,7 +2757,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2784,7 +2797,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2794,7 +2807,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2804,7 +2817,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2824,7 +2837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2864,7 +2877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2884,7 +2897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2904,7 +2917,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2914,7 +2927,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2924,7 +2937,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2967,14 +2980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -2992,7 +3005,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3000,7 +3013,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3016,7 +3029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3024,7 +3037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3032,19 +3045,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>111</v>
@@ -3064,7 +3077,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3084,7 +3097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -3114,7 +3127,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -3144,7 +3157,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -3174,7 +3187,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -3204,7 +3217,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -3234,7 +3247,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -3254,7 +3267,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -3264,7 +3277,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -3284,7 +3297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -3304,7 +3317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -3324,7 +3337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -3344,7 +3357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3364,7 +3377,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3374,7 +3387,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3384,7 +3397,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3404,7 +3417,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3444,7 +3457,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3464,7 +3477,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3484,7 +3497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3494,7 +3507,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3504,7 +3517,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3524,7 +3537,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3544,7 +3557,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3564,7 +3577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3584,7 +3597,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3604,7 +3617,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3614,7 +3627,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3624,7 +3637,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3644,7 +3657,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3664,7 +3677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3699,14 +3712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3724,7 +3737,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3732,7 +3745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3740,7 +3753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3748,7 +3761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3756,7 +3769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3764,19 +3777,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -3796,7 +3809,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3816,7 +3829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3846,7 +3859,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3876,7 +3889,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3896,7 +3909,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3916,7 +3929,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3946,7 +3959,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -3976,7 +3989,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -3996,7 +4009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -4016,7 +4029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -4036,7 +4049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -4046,7 +4059,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -4056,7 +4069,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -4076,7 +4089,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
@@ -4092,7 +4105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
@@ -4112,7 +4125,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -4132,7 +4145,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
@@ -4152,7 +4165,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -4164,7 +4177,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -4176,7 +4189,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
@@ -4196,7 +4209,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -4216,7 +4229,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -4236,7 +4249,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -4256,7 +4269,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -4276,7 +4289,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -4288,7 +4301,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -4300,7 +4313,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -4320,7 +4333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -4340,7 +4353,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -4360,7 +4373,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
@@ -4380,7 +4393,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
@@ -4400,7 +4413,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43708</v>
       </c>
@@ -4439,14 +4452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -4464,7 +4477,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4472,7 +4485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4480,7 +4493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4488,7 +4501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4496,7 +4509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4504,19 +4517,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -4536,7 +4549,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -4556,7 +4569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43709</v>
       </c>
@@ -4580,7 +4593,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43710</v>
       </c>
@@ -4610,7 +4623,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="61.5" customHeight="1">
       <c r="A14" s="14">
         <v>43711</v>
       </c>
@@ -4640,7 +4653,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43712</v>
       </c>
@@ -4670,7 +4683,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43713</v>
       </c>
@@ -4700,7 +4713,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43714</v>
       </c>
@@ -4730,7 +4743,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43715</v>
       </c>
@@ -4744,7 +4757,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43716</v>
       </c>
@@ -4758,7 +4771,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43717</v>
       </c>
@@ -4778,7 +4791,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="77.25" customHeight="1">
       <c r="A21" s="14">
         <v>43718</v>
       </c>
@@ -4798,7 +4811,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="88.5" customHeight="1">
       <c r="A22" s="14">
         <v>43719</v>
       </c>
@@ -4818,7 +4831,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="57.75" customHeight="1">
       <c r="A23" s="14">
         <v>43720</v>
       </c>
@@ -4838,7 +4851,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="84" customHeight="1">
       <c r="A24" s="14">
         <v>43721</v>
       </c>
@@ -4858,7 +4871,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="30.75" customHeight="1">
       <c r="A25" s="14">
         <v>43722</v>
       </c>
@@ -4872,7 +4885,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43723</v>
       </c>
@@ -4886,7 +4899,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="72" customHeight="1">
       <c r="A27" s="14">
         <v>43724</v>
       </c>
@@ -4906,7 +4919,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="91.5" customHeight="1">
       <c r="A28" s="14">
         <v>43725</v>
       </c>
@@ -4926,7 +4939,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="69.75" customHeight="1">
       <c r="A29" s="14">
         <v>43726</v>
       </c>
@@ -4946,7 +4959,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="56.25" customHeight="1">
       <c r="A30" s="14">
         <v>43727</v>
       </c>
@@ -4966,7 +4979,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="27">
       <c r="A31" s="14">
         <v>43728</v>
       </c>
@@ -4986,7 +4999,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="42" customHeight="1">
       <c r="A32" s="14">
         <v>43729</v>
       </c>
@@ -5006,7 +5019,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="30" customHeight="1">
       <c r="A33" s="14">
         <v>43730</v>
       </c>
@@ -5020,7 +5033,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="51" customHeight="1">
       <c r="A34" s="14">
         <v>43731</v>
       </c>
@@ -5034,7 +5047,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="78.75" customHeight="1">
       <c r="A35" s="14">
         <v>43732</v>
       </c>
@@ -5054,7 +5067,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="62.25" customHeight="1">
       <c r="A36" s="14">
         <v>43733</v>
       </c>
@@ -5074,7 +5087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="60" customHeight="1">
       <c r="A37" s="14">
         <v>43734</v>
       </c>
@@ -5094,7 +5107,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="39" customHeight="1">
       <c r="A38" s="14">
         <v>43735</v>
       </c>
@@ -5110,7 +5123,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" ht="39" customHeight="1">
       <c r="A39" s="14">
         <v>43736</v>
       </c>
@@ -5124,7 +5137,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="53.25" customHeight="1">
       <c r="A40" s="14">
         <v>43737</v>
       </c>
@@ -5144,7 +5157,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="44.25" customHeight="1">
       <c r="A41" s="14">
         <v>43738</v>
       </c>
@@ -5164,7 +5177,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="33" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" s="33" customFormat="1" ht="41.25" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -5201,14 +5214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -5218,7 +5231,7 @@
     <col min="6" max="6" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5230,7 +5243,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5242,7 +5255,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5254,7 +5267,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5266,7 +5279,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5278,7 +5291,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
@@ -5286,7 +5299,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -5294,7 +5307,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
@@ -5302,7 +5315,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
@@ -5310,7 +5323,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="62.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -5320,7 +5333,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
     </row>
-    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="47.25" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -5340,7 +5353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
       <c r="A12" s="14">
         <v>43739</v>
       </c>
@@ -5356,7 +5369,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>43740</v>
       </c>
@@ -5372,7 +5385,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>43741</v>
       </c>
@@ -5388,7 +5401,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="14">
         <v>43742</v>
       </c>
@@ -5404,7 +5417,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>43743</v>
       </c>
@@ -5420,7 +5433,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>43744</v>
       </c>
@@ -5436,7 +5449,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>43745</v>
       </c>
@@ -5452,7 +5465,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="50.25" customHeight="1">
       <c r="A19" s="14">
         <v>43746</v>
       </c>
@@ -5472,21 +5485,27 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="95.25" customHeight="1">
       <c r="A20" s="14">
         <v>43747</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="31" t="s">
+        <v>200</v>
+      </c>
       <c r="D20" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E20" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="14">
         <v>43748</v>
       </c>
@@ -5500,7 +5519,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>43749</v>
       </c>
@@ -5514,7 +5533,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>43750</v>
       </c>
@@ -5528,7 +5547,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>43751</v>
       </c>
@@ -5542,7 +5561,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>43752</v>
       </c>
@@ -5556,7 +5575,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>43753</v>
       </c>
@@ -5570,7 +5589,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>43754</v>
       </c>
@@ -5584,7 +5603,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>43755</v>
       </c>
@@ -5598,7 +5617,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>43756</v>
       </c>
@@ -5612,7 +5631,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>43757</v>
       </c>
@@ -5626,7 +5645,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="14">
         <v>43758</v>
       </c>
@@ -5640,7 +5659,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="14">
         <v>43759</v>
       </c>
@@ -5654,7 +5673,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43760</v>
       </c>
@@ -5668,7 +5687,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43761</v>
       </c>
@@ -5682,7 +5701,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43762</v>
       </c>
@@ -5696,7 +5715,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43763</v>
       </c>
@@ -5710,7 +5729,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43764</v>
       </c>
@@ -5724,7 +5743,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43765</v>
       </c>
@@ -5738,7 +5757,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43766</v>
       </c>
@@ -5752,7 +5771,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43767</v>
       </c>
@@ -5766,7 +5785,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43768</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="205">
   <si>
     <t>姓名</t>
   </si>
@@ -859,15 +859,26 @@
 2、查看支付监控的兼容性问题</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">1、解决首页购物车点击2次才能返回（100%）
+2、查看支付监控的兼容性问题。（100%）
+3、首页头像更换（100%）
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成资讯页面和资讯详情页面UI（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,7 +1183,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1246,6 +1257,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1280,6 +1292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1455,14 +1468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1488,7 +1501,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1504,7 +1517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +1525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1520,7 +1533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1">
+    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1528,19 +1541,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -1578,7 +1591,7 @@
       <c r="Y10" s="35"/>
       <c r="Z10" s="36"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1698,7 +1711,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1738,7 +1751,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1768,7 +1781,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1798,7 +1811,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1828,7 +1841,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1868,7 +1881,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1908,7 +1921,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1948,7 +1961,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -1988,7 +2001,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -2024,7 +2037,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -2054,7 +2067,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -2084,7 +2097,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -2124,7 +2137,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -2164,7 +2177,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -2204,7 +2217,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -2244,7 +2257,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -2284,7 +2297,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -2309,7 +2322,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -2339,7 +2352,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2379,7 +2392,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2419,7 +2432,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2459,7 +2472,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2499,7 +2512,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2539,7 +2552,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2567,7 +2580,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2597,7 +2610,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2637,7 +2650,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2677,7 +2690,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2717,7 +2730,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2757,7 +2770,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2797,7 +2810,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2807,7 +2820,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2817,7 +2830,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2837,7 +2850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2857,7 +2870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2877,7 +2890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2897,7 +2910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2917,7 +2930,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2927,7 +2940,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2937,7 +2950,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2980,14 +2993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3005,7 +3018,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3021,7 +3034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3029,7 +3042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3045,19 +3058,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>111</v>
@@ -3077,7 +3090,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -3127,7 +3140,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -3157,7 +3170,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -3187,7 +3200,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -3217,7 +3230,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -3247,7 +3260,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -3267,7 +3280,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -3277,7 +3290,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -3297,7 +3310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -3317,7 +3330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -3337,7 +3350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -3357,7 +3370,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3377,7 +3390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3387,7 +3400,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3397,7 +3410,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3417,7 +3430,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3437,7 +3450,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3457,7 +3470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3477,7 +3490,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3497,7 +3510,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3507,7 +3520,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3517,7 +3530,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3537,7 +3550,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3557,7 +3570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3577,7 +3590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3597,7 +3610,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3617,7 +3630,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3627,7 +3640,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3637,7 +3650,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3657,7 +3670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3677,7 +3690,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3712,14 +3725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3737,7 +3750,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3753,7 +3766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3761,7 +3774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3769,7 +3782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3777,19 +3790,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -3809,7 +3822,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3829,7 +3842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3859,7 +3872,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3889,7 +3902,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3909,7 +3922,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3929,7 +3942,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3959,7 +3972,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -3989,7 +4002,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -4009,7 +4022,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -4029,7 +4042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -4049,7 +4062,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -4059,7 +4072,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -4069,7 +4082,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -4089,7 +4102,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
@@ -4105,7 +4118,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
@@ -4125,7 +4138,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -4145,7 +4158,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
@@ -4165,7 +4178,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -4177,7 +4190,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -4189,7 +4202,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
@@ -4209,7 +4222,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -4229,7 +4242,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -4249,7 +4262,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -4269,7 +4282,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -4289,7 +4302,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -4301,7 +4314,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -4313,7 +4326,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -4333,7 +4346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -4353,7 +4366,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -4373,7 +4386,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
@@ -4393,7 +4406,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
@@ -4413,7 +4426,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>43708</v>
       </c>
@@ -4452,14 +4465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -4477,7 +4490,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4485,7 +4498,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4493,7 +4506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4501,7 +4514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4509,7 +4522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4517,19 +4530,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -4549,7 +4562,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -4569,7 +4582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43709</v>
       </c>
@@ -4593,7 +4606,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43710</v>
       </c>
@@ -4623,7 +4636,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="61.5" customHeight="1">
+    <row r="14" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43711</v>
       </c>
@@ -4653,7 +4666,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43712</v>
       </c>
@@ -4683,7 +4696,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43713</v>
       </c>
@@ -4713,7 +4726,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43714</v>
       </c>
@@ -4743,7 +4756,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43715</v>
       </c>
@@ -4757,7 +4770,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43716</v>
       </c>
@@ -4771,7 +4784,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43717</v>
       </c>
@@ -4791,7 +4804,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="77.25" customHeight="1">
+    <row r="21" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43718</v>
       </c>
@@ -4811,7 +4824,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="88.5" customHeight="1">
+    <row r="22" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43719</v>
       </c>
@@ -4831,7 +4844,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="57.75" customHeight="1">
+    <row r="23" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43720</v>
       </c>
@@ -4851,7 +4864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="84" customHeight="1">
+    <row r="24" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43721</v>
       </c>
@@ -4871,7 +4884,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30.75" customHeight="1">
+    <row r="25" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43722</v>
       </c>
@@ -4885,7 +4898,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43723</v>
       </c>
@@ -4899,7 +4912,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="72" customHeight="1">
+    <row r="27" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43724</v>
       </c>
@@ -4919,7 +4932,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="91.5" customHeight="1">
+    <row r="28" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43725</v>
       </c>
@@ -4939,7 +4952,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="69.75" customHeight="1">
+    <row r="29" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43726</v>
       </c>
@@ -4959,7 +4972,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="56.25" customHeight="1">
+    <row r="30" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43727</v>
       </c>
@@ -4979,7 +4992,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="27">
+    <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43728</v>
       </c>
@@ -4999,7 +5012,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="42" customHeight="1">
+    <row r="32" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43729</v>
       </c>
@@ -5019,7 +5032,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="30" customHeight="1">
+    <row r="33" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43730</v>
       </c>
@@ -5033,7 +5046,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="51" customHeight="1">
+    <row r="34" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43731</v>
       </c>
@@ -5047,7 +5060,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="78.75" customHeight="1">
+    <row r="35" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43732</v>
       </c>
@@ -5067,7 +5080,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="62.25" customHeight="1">
+    <row r="36" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43733</v>
       </c>
@@ -5087,7 +5100,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="60" customHeight="1">
+    <row r="37" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43734</v>
       </c>
@@ -5107,7 +5120,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="39" customHeight="1">
+    <row r="38" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43735</v>
       </c>
@@ -5123,7 +5136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="39" customHeight="1">
+    <row r="39" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43736</v>
       </c>
@@ -5137,7 +5150,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="53.25" customHeight="1">
+    <row r="40" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43737</v>
       </c>
@@ -5157,7 +5170,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="44.25" customHeight="1">
+    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43738</v>
       </c>
@@ -5177,7 +5190,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="33" customFormat="1" ht="41.25" customHeight="1">
+    <row r="42" spans="1:16" s="33" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -5214,14 +5227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -5231,7 +5244,7 @@
     <col min="6" max="6" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5243,7 +5256,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5255,7 +5268,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5267,7 +5280,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5279,7 +5292,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5291,7 +5304,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
@@ -5299,7 +5312,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -5307,7 +5320,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
@@ -5315,7 +5328,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
@@ -5323,7 +5336,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="62.25" customHeight="1">
+    <row r="10" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -5333,7 +5346,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
     </row>
-    <row r="11" spans="1:6" ht="47.25" customHeight="1">
+    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -5353,7 +5366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>43739</v>
       </c>
@@ -5369,7 +5382,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>43740</v>
       </c>
@@ -5385,7 +5398,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>43741</v>
       </c>
@@ -5401,7 +5414,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>43742</v>
       </c>
@@ -5417,7 +5430,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>43743</v>
       </c>
@@ -5433,7 +5446,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>43744</v>
       </c>
@@ -5449,7 +5462,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>43745</v>
       </c>
@@ -5465,7 +5478,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="50.25" customHeight="1">
+    <row r="19" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>43746</v>
       </c>
@@ -5485,7 +5498,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="95.25" customHeight="1">
+    <row r="20" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>43747</v>
       </c>
@@ -5505,21 +5518,27 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>43748</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>203</v>
+      </c>
       <c r="D21" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="20">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>43749</v>
       </c>
@@ -5533,7 +5552,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>43750</v>
       </c>
@@ -5547,7 +5566,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>43751</v>
       </c>
@@ -5561,7 +5580,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>43752</v>
       </c>
@@ -5575,7 +5594,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>43753</v>
       </c>
@@ -5589,7 +5608,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43754</v>
       </c>
@@ -5603,7 +5622,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>43755</v>
       </c>
@@ -5617,7 +5636,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>43756</v>
       </c>
@@ -5631,7 +5650,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>43757</v>
       </c>
@@ -5645,7 +5664,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>43758</v>
       </c>
@@ -5659,7 +5678,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43759</v>
       </c>
@@ -5673,7 +5692,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>43760</v>
       </c>
@@ -5687,7 +5706,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>43761</v>
       </c>
@@ -5701,7 +5720,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>43762</v>
       </c>
@@ -5715,7 +5734,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>43763</v>
       </c>
@@ -5729,7 +5748,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>43764</v>
       </c>
@@ -5743,7 +5762,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>43765</v>
       </c>
@@ -5757,7 +5776,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <v>43766</v>
       </c>
@@ -5771,7 +5790,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <v>43767</v>
       </c>
@@ -5785,7 +5804,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43768</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7215" activeTab="4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="208">
   <si>
     <t>姓名</t>
   </si>
@@ -870,15 +870,28 @@
     <t>1、完成资讯页面和资讯详情页面UI（100%）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1、完成资讯页面和资讯详情页面UI（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查看选取的Im文档（70%）
+2、修改易计划App的Bug(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,7 +1196,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1257,7 +1270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1292,7 +1304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1468,14 +1479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -1501,7 +1512,7 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1517,7 +1528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1541,19 +1552,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -1591,7 +1602,7 @@
       <c r="Y10" s="35"/>
       <c r="Z10" s="36"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="14">
         <v>43621</v>
       </c>
@@ -1711,7 +1722,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="14">
         <v>43622</v>
       </c>
@@ -1751,7 +1762,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="14">
         <v>43623</v>
       </c>
@@ -1781,7 +1792,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="14">
         <v>43624</v>
       </c>
@@ -1811,7 +1822,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="14">
         <v>43625</v>
       </c>
@@ -1841,7 +1852,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="14">
         <v>43626</v>
       </c>
@@ -1881,7 +1892,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="14">
         <v>43627</v>
       </c>
@@ -1921,7 +1932,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="14">
         <v>43628</v>
       </c>
@@ -1961,7 +1972,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="14">
         <v>43629</v>
       </c>
@@ -2001,7 +2012,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="14">
         <v>43630</v>
       </c>
@@ -2037,7 +2048,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="14">
         <v>43631</v>
       </c>
@@ -2067,7 +2078,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="14">
         <v>43632</v>
       </c>
@@ -2097,7 +2108,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="14">
         <v>43633</v>
       </c>
@@ -2137,7 +2148,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="14">
         <v>43634</v>
       </c>
@@ -2177,7 +2188,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="14">
         <v>43635</v>
       </c>
@@ -2217,7 +2228,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="14">
         <v>43636</v>
       </c>
@@ -2257,7 +2268,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="14">
         <v>43637</v>
       </c>
@@ -2297,7 +2308,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="14">
         <v>43638</v>
       </c>
@@ -2322,7 +2333,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="14">
         <v>43639</v>
       </c>
@@ -2352,7 +2363,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26">
       <c r="A31" s="14">
         <v>43640</v>
       </c>
@@ -2392,7 +2403,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="A32" s="14">
         <v>43641</v>
       </c>
@@ -2432,7 +2443,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26">
       <c r="A33" s="14">
         <v>43642</v>
       </c>
@@ -2472,7 +2483,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="14">
         <v>43643</v>
       </c>
@@ -2512,7 +2523,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="14">
         <v>43644</v>
       </c>
@@ -2552,7 +2563,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26">
       <c r="A36" s="14">
         <v>43645</v>
       </c>
@@ -2580,7 +2591,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26">
       <c r="A37" s="14">
         <v>43646</v>
       </c>
@@ -2610,7 +2621,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26">
       <c r="A38" s="14">
         <v>43647</v>
       </c>
@@ -2650,7 +2661,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26">
       <c r="A39" s="14">
         <v>43648</v>
       </c>
@@ -2690,7 +2701,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26">
       <c r="A40" s="14">
         <v>43649</v>
       </c>
@@ -2730,7 +2741,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26">
       <c r="A41" s="14">
         <v>43650</v>
       </c>
@@ -2770,7 +2781,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26">
       <c r="A42" s="14">
         <v>43651</v>
       </c>
@@ -2810,7 +2821,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26">
       <c r="A43" s="14">
         <v>43652</v>
       </c>
@@ -2820,7 +2831,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26">
       <c r="A44" s="14">
         <v>43653</v>
       </c>
@@ -2830,7 +2841,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26">
       <c r="A45" s="14">
         <v>43654</v>
       </c>
@@ -2850,7 +2861,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26">
       <c r="A46" s="14">
         <v>43655</v>
       </c>
@@ -2870,7 +2881,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26">
       <c r="A47" s="14">
         <v>43656</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26">
       <c r="A48" s="14">
         <v>43657</v>
       </c>
@@ -2910,7 +2921,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="14">
         <v>43658</v>
       </c>
@@ -2930,7 +2941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="14">
         <v>43659</v>
       </c>
@@ -2940,7 +2951,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="14">
         <v>43660</v>
       </c>
@@ -2950,7 +2961,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>43661</v>
       </c>
@@ -2993,14 +3004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3018,7 +3029,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3034,7 +3045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3058,19 +3069,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>111</v>
@@ -3090,7 +3101,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3110,7 +3121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43647</v>
       </c>
@@ -3140,7 +3151,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43648</v>
       </c>
@@ -3170,7 +3181,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43649</v>
       </c>
@@ -3200,7 +3211,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43650</v>
       </c>
@@ -3230,7 +3241,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43651</v>
       </c>
@@ -3260,7 +3271,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43652</v>
       </c>
@@ -3280,7 +3291,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43653</v>
       </c>
@@ -3290,7 +3301,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43654</v>
       </c>
@@ -3310,7 +3321,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43655</v>
       </c>
@@ -3330,7 +3341,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43656</v>
       </c>
@@ -3350,7 +3361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43657</v>
       </c>
@@ -3370,7 +3381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43658</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43659</v>
       </c>
@@ -3400,7 +3411,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43660</v>
       </c>
@@ -3410,7 +3421,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43661</v>
       </c>
@@ -3430,7 +3441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43662</v>
       </c>
@@ -3450,7 +3461,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43663</v>
       </c>
@@ -3470,7 +3481,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43664</v>
       </c>
@@ -3490,7 +3501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43665</v>
       </c>
@@ -3510,7 +3521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43666</v>
       </c>
@@ -3520,7 +3531,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43667</v>
       </c>
@@ -3530,7 +3541,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43668</v>
       </c>
@@ -3550,7 +3561,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43669</v>
       </c>
@@ -3570,7 +3581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43670</v>
       </c>
@@ -3590,7 +3601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43671</v>
       </c>
@@ -3610,7 +3621,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43672</v>
       </c>
@@ -3630,7 +3641,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43673</v>
       </c>
@@ -3640,7 +3651,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43674</v>
       </c>
@@ -3650,7 +3661,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43675</v>
       </c>
@@ -3670,7 +3681,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43676</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43677</v>
       </c>
@@ -3725,14 +3736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -3750,7 +3761,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3769,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3766,7 +3777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3774,7 +3785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3782,7 +3793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3790,19 +3801,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -3822,7 +3833,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3842,7 +3853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43678</v>
       </c>
@@ -3872,7 +3883,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43679</v>
       </c>
@@ -3902,7 +3913,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="14">
         <v>43680</v>
       </c>
@@ -3922,7 +3933,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43681</v>
       </c>
@@ -3942,7 +3953,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43682</v>
       </c>
@@ -3972,7 +3983,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43683</v>
       </c>
@@ -4002,7 +4013,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43684</v>
       </c>
@@ -4022,7 +4033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43685</v>
       </c>
@@ -4042,7 +4053,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43686</v>
       </c>
@@ -4062,7 +4073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>43687</v>
       </c>
@@ -4072,7 +4083,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>43688</v>
       </c>
@@ -4082,7 +4093,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>43689</v>
       </c>
@@ -4102,7 +4113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>43690</v>
       </c>
@@ -4118,7 +4129,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="14">
         <v>43691</v>
       </c>
@@ -4138,7 +4149,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43692</v>
       </c>
@@ -4158,7 +4169,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>43693</v>
       </c>
@@ -4178,7 +4189,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>43694</v>
       </c>
@@ -4190,7 +4201,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>43695</v>
       </c>
@@ -4202,7 +4213,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="14">
         <v>43696</v>
       </c>
@@ -4222,7 +4233,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>43697</v>
       </c>
@@ -4242,7 +4253,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>43698</v>
       </c>
@@ -4262,7 +4273,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43699</v>
       </c>
@@ -4282,7 +4293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43700</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43701</v>
       </c>
@@ -4314,7 +4325,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43702</v>
       </c>
@@ -4326,7 +4337,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43703</v>
       </c>
@@ -4346,7 +4357,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43704</v>
       </c>
@@ -4366,7 +4377,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43705</v>
       </c>
@@ -4386,7 +4397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43706</v>
       </c>
@@ -4406,7 +4417,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43707</v>
       </c>
@@ -4426,7 +4437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>43708</v>
       </c>
@@ -4465,14 +4476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
@@ -4490,7 +4501,7 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4498,7 +4509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4506,7 +4517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4514,7 +4525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4530,19 +4541,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -4562,7 +4573,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -4582,7 +4593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14">
         <v>43709</v>
       </c>
@@ -4606,7 +4617,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="14">
         <v>43710</v>
       </c>
@@ -4636,7 +4647,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="61.5" customHeight="1">
       <c r="A14" s="14">
         <v>43711</v>
       </c>
@@ -4666,7 +4677,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="14">
         <v>43712</v>
       </c>
@@ -4696,7 +4707,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14">
         <v>43713</v>
       </c>
@@ -4726,7 +4737,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>43714</v>
       </c>
@@ -4756,7 +4767,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>43715</v>
       </c>
@@ -4770,7 +4781,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>43716</v>
       </c>
@@ -4784,7 +4795,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>43717</v>
       </c>
@@ -4804,7 +4815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="77.25" customHeight="1">
       <c r="A21" s="14">
         <v>43718</v>
       </c>
@@ -4824,7 +4835,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="88.5" customHeight="1">
       <c r="A22" s="14">
         <v>43719</v>
       </c>
@@ -4844,7 +4855,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="57.75" customHeight="1">
       <c r="A23" s="14">
         <v>43720</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="84" customHeight="1">
       <c r="A24" s="14">
         <v>43721</v>
       </c>
@@ -4884,7 +4895,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="30.75" customHeight="1">
       <c r="A25" s="14">
         <v>43722</v>
       </c>
@@ -4898,7 +4909,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="14">
         <v>43723</v>
       </c>
@@ -4912,7 +4923,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="72" customHeight="1">
       <c r="A27" s="14">
         <v>43724</v>
       </c>
@@ -4932,7 +4943,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="91.5" customHeight="1">
       <c r="A28" s="14">
         <v>43725</v>
       </c>
@@ -4952,7 +4963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="69.75" customHeight="1">
       <c r="A29" s="14">
         <v>43726</v>
       </c>
@@ -4972,7 +4983,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="56.25" customHeight="1">
       <c r="A30" s="14">
         <v>43727</v>
       </c>
@@ -4992,7 +5003,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="27">
       <c r="A31" s="14">
         <v>43728</v>
       </c>
@@ -5012,7 +5023,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="42" customHeight="1">
       <c r="A32" s="14">
         <v>43729</v>
       </c>
@@ -5032,7 +5043,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="30" customHeight="1">
       <c r="A33" s="14">
         <v>43730</v>
       </c>
@@ -5046,7 +5057,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="51" customHeight="1">
       <c r="A34" s="14">
         <v>43731</v>
       </c>
@@ -5060,7 +5071,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="78.75" customHeight="1">
       <c r="A35" s="14">
         <v>43732</v>
       </c>
@@ -5080,7 +5091,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="62.25" customHeight="1">
       <c r="A36" s="14">
         <v>43733</v>
       </c>
@@ -5100,7 +5111,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="60" customHeight="1">
       <c r="A37" s="14">
         <v>43734</v>
       </c>
@@ -5120,7 +5131,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="39" customHeight="1">
       <c r="A38" s="14">
         <v>43735</v>
       </c>
@@ -5136,7 +5147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" ht="39" customHeight="1">
       <c r="A39" s="14">
         <v>43736</v>
       </c>
@@ -5150,7 +5161,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="53.25" customHeight="1">
       <c r="A40" s="14">
         <v>43737</v>
       </c>
@@ -5170,7 +5181,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="44.25" customHeight="1">
       <c r="A41" s="14">
         <v>43738</v>
       </c>
@@ -5190,7 +5201,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="33" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" s="33" customFormat="1" ht="41.25" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -5227,14 +5238,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -5244,7 +5255,7 @@
     <col min="6" max="6" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5256,7 +5267,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5268,7 +5279,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5280,7 +5291,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5292,7 +5303,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5304,7 +5315,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
@@ -5312,7 +5323,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -5320,7 +5331,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
@@ -5328,7 +5339,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
@@ -5336,7 +5347,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="62.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -5346,7 +5357,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
     </row>
-    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="47.25" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -5366,7 +5377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
       <c r="A12" s="14">
         <v>43739</v>
       </c>
@@ -5382,7 +5393,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>43740</v>
       </c>
@@ -5398,7 +5409,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>43741</v>
       </c>
@@ -5414,7 +5425,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="14">
         <v>43742</v>
       </c>
@@ -5430,7 +5441,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>43743</v>
       </c>
@@ -5446,7 +5457,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>43744</v>
       </c>
@@ -5462,7 +5473,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>43745</v>
       </c>
@@ -5478,7 +5489,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="50.25" customHeight="1">
       <c r="A19" s="14">
         <v>43746</v>
       </c>
@@ -5498,7 +5509,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="95.25" customHeight="1">
       <c r="A20" s="14">
         <v>43747</v>
       </c>
@@ -5518,7 +5529,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="66.75" customHeight="1">
       <c r="A21" s="14">
         <v>43748</v>
       </c>
@@ -5538,21 +5549,27 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="54" customHeight="1">
       <c r="A22" s="14">
         <v>43749</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E22" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>43750</v>
       </c>
@@ -5566,7 +5583,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>43751</v>
       </c>
@@ -5580,7 +5597,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>43752</v>
       </c>
@@ -5594,7 +5611,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>43753</v>
       </c>
@@ -5608,7 +5625,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>43754</v>
       </c>
@@ -5622,7 +5639,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>43755</v>
       </c>
@@ -5636,7 +5653,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>43756</v>
       </c>
@@ -5650,7 +5667,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>43757</v>
       </c>
@@ -5664,7 +5681,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="14">
         <v>43758</v>
       </c>
@@ -5678,7 +5695,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="14">
         <v>43759</v>
       </c>
@@ -5692,7 +5709,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="14">
         <v>43760</v>
       </c>
@@ -5706,7 +5723,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>43761</v>
       </c>
@@ -5720,7 +5737,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>43762</v>
       </c>
@@ -5734,7 +5751,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="14">
         <v>43763</v>
       </c>
@@ -5748,7 +5765,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="14">
         <v>43764</v>
       </c>
@@ -5762,7 +5779,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>43765</v>
       </c>
@@ -5776,7 +5793,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>43766</v>
       </c>
@@ -5790,7 +5807,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>43767</v>
       </c>
@@ -5804,7 +5821,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>43768</v>
       </c>

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="211">
   <si>
     <t>姓名</t>
   </si>
@@ -881,6 +881,20 @@
   <si>
     <t>1、查看选取的Im文档（70%）
 2、修改易计划App的Bug(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、导入极光iMSdk准备开发Im(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、确认易计划V1.4.0App开发功能。
+2、查看选取的Im文档（100%）
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易计划v1.3.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5241,8 +5255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5569,21 +5583,27 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="57" customHeight="1">
       <c r="A23" s="14">
         <v>43750</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="22"/>
+        <v>210</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="59.25" customHeight="1">
       <c r="A24" s="14">
         <v>43751</v>
       </c>
@@ -5597,19 +5617,25 @@
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="40.5">
       <c r="A25" s="14">
         <v>43752</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="22"/>
+        <v>210</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="D25" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="215">
   <si>
     <t>姓名</t>
   </si>
@@ -895,6 +895,24 @@
   </si>
   <si>
     <t>易计划v1.3.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调试调试资讯列表界面接口（100%）
+2、导入极光iMSdk准备开发Im(50%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调试调试资讯详情界面接口（100%）
+2、导入极光iMSdk准备开发Im(100%)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5256,7 +5274,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5631,25 +5649,31 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="57.75" customHeight="1">
       <c r="A26" s="14">
         <v>43753</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="22" t="s">
+        <v>211</v>
+      </c>
       <c r="D26" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="221">
   <si>
     <t>姓名</t>
   </si>
@@ -907,12 +907,44 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>18：:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1、调试调试资讯详情界面接口（100%）
 2、导入极光iMSdk准备开发Im(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、调试调试资讯详情界面接口（100%）
+2、调试调试资讯详情界面接口（100%）
+3、确定易计划V1.4.0App端功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、导入极光iMSdk准备开发Im(100%)
+2、熟悉极光Im的api调用（50%）
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易计划v1.4.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Im互动性消息列表（100%）
+2、Im账号登录（100%））
+3、确定易计划V1.4.0App端功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Im聊天界面开发（50%）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5273,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5669,39 +5701,51 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E26" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:6" ht="77.25" customHeight="1">
       <c r="A27" s="14">
         <v>43754</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="22" t="s">
+        <v>217</v>
+      </c>
       <c r="D27" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="82.5" customHeight="1">
       <c r="A28" s="14">
         <v>43755</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="22"/>
+        <v>218</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>219</v>
+      </c>
       <c r="D28" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14">

--- a/易超_1工作·日志.xlsx
+++ b/易超_1工作·日志.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="224">
   <si>
     <t>姓名</t>
   </si>
@@ -934,10 +934,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>易计划v1.4.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1、Im互动性消息列表（100%）
 2、Im账号登录（100%））
 3、确定易计划V1.4.0App端功能开发</t>
@@ -945,6 +941,24 @@
   </si>
   <si>
     <t>1、Im聊天界面开发（50%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易计划v1.4.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Im聊天界面开发（40%）
+2、完成邀请有奖（100%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19：:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成资讯页面和资讯详情页面接口调试（100%）
+2、Im聊天界面开发（60%）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5306,7 +5320,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5732,10 +5746,10 @@
         <v>43755</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>218</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="D28" s="20">
         <v>0.39583333333333331</v>
@@ -5744,10 +5758,10 @@
         <v>206</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="53.25" customHeight="1">
       <c r="A29" s="14">
         <v>43756</v>
       </c>
@@ -5761,19 +5775,25 @@
       <c r="E29" s="20"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="79.5" customHeight="1">
       <c r="A30" s="14">
         <v>43757</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="22" t="s">
+        <v>221</v>
+      </c>
       <c r="D30" s="20">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="22"/>
+      <c r="E30" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="14">
